--- a/Case/imooc.xlsx
+++ b/Case/imooc.xlsx
@@ -464,16 +464,17 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
     <col width="11.25" customWidth="1" style="4" min="1" max="1"/>
-    <col width="8.125" customWidth="1" style="4" min="2" max="2"/>
+    <col width="15.25" customWidth="1" style="4" min="2" max="2"/>
     <col width="4.875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="11.5" customWidth="1" style="4" min="4" max="5"/>
+    <col width="19" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11.5" customWidth="1" style="4" min="5" max="5"/>
     <col width="12.125" customWidth="1" style="4" min="6" max="6"/>
     <col width="9.125" customWidth="1" style="4" min="7" max="7"/>
     <col width="13.5" customWidth="1" style="4" min="8" max="8"/>
@@ -571,16 +572,8 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+      <c r="D2" s="0" t="n"/>
+      <c r="E2" s="0" t="n"/>
       <c r="F2" s="2" t="inlineStr">
         <is>
           <t>api3/getbanneradvertver2</t>
@@ -611,21 +604,12 @@
           <t>mec</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
       </c>
-      <c r="N2" s="0" t="inlineStr">
-        <is>
-          <t>{"status": 0, "data": {"banner": [{"id": 2262, "type": 6, "type_id": 330, "name": "\u524d\u7aef\u4e0b\u4e00\u4ee3\u5f00\u53d1\u8bed\u8a00TypeScript  \u4ece\u57fa\u7840\u5230axios\u5b9e\u6218", "pic": "http://szimg.mukewang.com/5cf721df09fc2be500000000.jpg", "links": ""}, {"id": 1648, "type": 6, "type_id": 169, "name": "Python3\u5165\u95e8\u673a\u5668\u5b66\u4e60 \u7ecf\u5178\u7b97\u6cd5\u4e0e\u5e94\u7528", "pic": "http://szimg.mukewang.com/5d0ed2d9085bd6ed09000300.jpg", "links": ""}, {"id": 1875, "type": 6, "type_id": 316, "name": "\u4ece\u57fa\u7840\u5230\u5b9e\u6218 \u624b\u628a\u624b\u5e26\u4f60\u638c\u63e1\u65b0\u7248Webpack4.0", "pic": "http://szimg.mukewang.com/5d0ed2ca086a9e6f09000300.jpg", "links": ""}, {"id": 1999, "type": 6, "type_id": 342, "name": "\u7eaf\u6b63\u5546\u4e1a\u7ea7\u5e94\u7528 Node.js Koa2\u5f00\u53d1\u5fae\u4fe1\u5c0f\u7a0b\u5e8f\u670d\u52a1\u7aef", "pic": "http://szimg.mukewang.com/5ceb5d370955f30f09000300.jpg", "links": ""}, {"id": 2158, "type": 99, "type_id": 0, "name": "Spring Cloud\u5fae\u670d\u52a1\u5f00\u53d1\u5b9e\u8df5", "pic": "http://img2.mukewang.com/5d088c4009bbebc009000300.jpg", "links": "https://www.imooc.com/read/37"}, {"id": 1709, "type": 6, "type_id": 354, "name": "Node.js\u5f00\u53d1\u4eff\u77e5\u4e4e\u670d\u52a1\u7aef \u6df1\u5165\u7406\u89e3RESTful API", "pic": "http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg", "links": ""}], "pic": [{"pic": "http://www.imooc.com/static/img/andriod/pic/actual_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/actual_night@3x.png", "type": 2}, {"pic": "http://www.imooc.com/static/img/andriod/pic/path_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/path_night@3x.png", "type": 6}, {"pic": "http://www.imooc.com/static/img/andriod/pic/question_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/question_night@3x.png", "type": 3}, {"pic": "http://www.imooc.com/static/img/andriod/pic/note_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/note_night@3x.png", "type": 4}, {"pic": "http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png", "type": 5}]}, "errorCode": 1001, "errorDesc": "\u6210\u529f", "timestamp": 1561269343507}</t>
-        </is>
-      </c>
+      <c r="N2" s="0" t="n"/>
     </row>
     <row r="3" ht="29.1" customHeight="1" s="4">
       <c r="A3" s="0" t="inlineStr">
@@ -693,11 +677,7 @@
           <t>失败</t>
         </is>
       </c>
-      <c r="N3" s="0" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 8001, "errorDesc": "\u8bf7\u5347\u7ea7app\u7248\u672c", "timestamp": 1616124432452}</t>
-        </is>
-      </c>
+      <c r="N3" s="0" t="n"/>
     </row>
     <row r="4" ht="75.59999999999999" customHeight="1" s="4">
       <c r="A4" s="0" t="inlineStr">
@@ -757,7 +737,7 @@
       </c>
       <c r="M4" s="0" t="inlineStr">
         <is>
-          <t>成功</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -814,7 +794,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616124433246}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616378575887}</t>
         </is>
       </c>
     </row>
@@ -871,7 +851,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616124433595}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616378576489}</t>
         </is>
       </c>
     </row>
@@ -926,11 +906,7 @@
           <t>成功</t>
         </is>
       </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616124194259}</t>
-        </is>
-      </c>
+      <c r="N7" s="0" t="n"/>
     </row>
     <row r="8" ht="42" customHeight="1" s="4">
       <c r="A8" s="0" t="inlineStr">
@@ -985,28 +961,12 @@
       </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616124434192}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="M9" s="0" t="inlineStr">
-        <is>
-          <t>成功</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616378577535}</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616124195267}</t>
-        </is>
-      </c>
+      <c r="N10" s="0" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Case/imooc.xlsx
+++ b/Case/imooc.xlsx
@@ -794,7 +794,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616378575887}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616379193258}</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616378576489}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616379193687}</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616378577535}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1616379194393}</t>
         </is>
       </c>
     </row>
